--- a/ToDo List.xlsx
+++ b/ToDo List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>To do</t>
   </si>
@@ -117,6 +117,27 @@
   </si>
   <si>
     <t>Test with all  browsers</t>
+  </si>
+  <si>
+    <t>Sort timestamp issue</t>
+  </si>
+  <si>
+    <t>Fix buttons on random page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Put scrollbar on divs where needed </t>
+  </si>
+  <si>
+    <t>Email Andy and Ortho</t>
+  </si>
+  <si>
+    <t>Admin adding events ? (possibly)</t>
+  </si>
+  <si>
+    <t>Deletes - Delete messages etc ? (possibly)</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
@@ -434,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,26 +478,41 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -523,79 +559,121 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ToDo List.xlsx
+++ b/ToDo List.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kari\Documents\University Folder\Third Year\WebProgramming\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8496"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>To do</t>
   </si>
@@ -138,6 +136,9 @@
   </si>
   <si>
     <t>In progress</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -153,12 +154,48 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -173,8 +210,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -235,7 +278,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,7 +313,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -447,7 +490,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -457,16 +500,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,209 +517,241 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/ToDo List.xlsx
+++ b/ToDo List.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>To do</t>
   </si>
@@ -139,13 +139,16 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>In pDorogress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,8 +156,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,12 +185,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,7 +220,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,7 +493,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -500,7 +503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -566,7 +569,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -574,7 +577,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -587,7 +590,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -595,7 +598,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -608,7 +611,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -616,7 +619,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -629,7 +632,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -639,7 +642,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -647,7 +650,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -685,11 +688,11 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -722,12 +725,12 @@
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" t="s">
+      <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -737,12 +740,12 @@
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" t="s">
+      <c r="A36" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" t="s">
+      <c r="A37" s="6" t="s">
         <v>35</v>
       </c>
     </row>

--- a/ToDo List.xlsx
+++ b/ToDo List.xlsx
@@ -163,7 +163,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,12 +194,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -213,13 +207,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -493,7 +486,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -504,7 +497,7 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A2" activeCellId="1" sqref="A36 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -561,7 +554,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -632,7 +625,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -730,7 +723,7 @@
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -740,12 +733,12 @@
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>35</v>
       </c>
     </row>
